--- a/01_Documentacion/09_Versionamiento/VERSIONAMIENTO.xlsx
+++ b/01_Documentacion/09_Versionamiento/VERSIONAMIENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rquis_9zzy7zj\Desktop\REQUISITOS\EspinAndres_14568_G2_IR\01_Documentacion\09_Versionamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD1492-0360-4AE1-AD2E-53DA728D18B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C2D9A-D28A-47C6-A592-8398A25335A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{832FCFE1-AD69-4BE8-BC16-E0185A150C4D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>HISTORIAL DE CAMBIOS</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Version 2</t>
+  </si>
+  <si>
+    <t>Cronograma</t>
+  </si>
+  <si>
+    <t>Se actualizo con las tareas realizadas</t>
   </si>
 </sst>
 </file>
@@ -829,7 +835,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -902,11 +908,21 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="22.8" customHeight="1">
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45450</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="22.8" customHeight="1">
       <c r="B7" s="3"/>
@@ -936,14 +952,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f14866ee3587f7ce27492aa7a9fad3cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" xmlns:ns4="ce621958-37b1-43fe-a1f1-1aad67996a88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a75488916cf2c0345e17416545d11eb" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -1138,6 +1146,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1148,23 +1164,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73F67B4-87E9-4AE4-8A98-0B0549C95613}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE85F10-5C80-457E-8120-672894666935}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1183,6 +1182,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73F67B4-87E9-4AE4-8A98-0B0549C95613}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEDAB8DE-133A-46DD-9C0B-9269E412FEB0}">
   <ds:schemaRefs>

--- a/01_Documentacion/09_Versionamiento/VERSIONAMIENTO.xlsx
+++ b/01_Documentacion/09_Versionamiento/VERSIONAMIENTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rquis_9zzy7zj\Desktop\REQUISITOS\EspinAndres_14568_G2_IR\01_Documentacion\09_Versionamiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeshu\Dropbox\ING_REQUISITOS\GITHUB\EspinAndres_14568_G2_IR\01_Documentacion\09_Versionamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C2D9A-D28A-47C6-A592-8398A25335A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB3617-6D89-4195-AC5B-90471B36450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{832FCFE1-AD69-4BE8-BC16-E0185A150C4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{832FCFE1-AD69-4BE8-BC16-E0185A150C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>HISTORIAL DE CAMBIOS</t>
   </si>
@@ -84,13 +84,19 @@
   </si>
   <si>
     <t>Se actualizo con las tareas realizadas</t>
+  </si>
+  <si>
+    <t>Perfil del Proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se corrigió el perfil del proyecto </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,7 +522,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -835,19 +841,19 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" customWidth="1"/>
-    <col min="5" max="5" width="33.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="2:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -856,7 +862,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="2:6" ht="24.6" customHeight="1">
+    <row r="3" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -873,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="19.8" customHeight="1">
+    <row r="4" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -890,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="23.4" customHeight="1">
+    <row r="5" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -907,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="22.8" customHeight="1">
+    <row r="6" spans="2:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -924,14 +930,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="22.8" customHeight="1">
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+    <row r="7" spans="2:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45450</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" ht="22.2" customHeight="1">
+    <row r="8" spans="2:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1147,20 +1163,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1183,6 +1199,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEDAB8DE-133A-46DD-9C0B-9269E412FEB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73F67B4-87E9-4AE4-8A98-0B0549C95613}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1197,12 +1221,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEDAB8DE-133A-46DD-9C0B-9269E412FEB0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_Documentacion/09_Versionamiento/VERSIONAMIENTO.xlsx
+++ b/01_Documentacion/09_Versionamiento/VERSIONAMIENTO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeshu\Dropbox\ING_REQUISITOS\GITHUB\EspinAndres_14568_G2_IR\01_Documentacion\09_Versionamiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ING_REQUISITOS\GITHUB\EspinAndres_14568_G2_IR\01_Documentacion\09_Versionamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB3617-6D89-4195-AC5B-90471B36450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C8A560-D913-493D-8F91-4576887FE50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{832FCFE1-AD69-4BE8-BC16-E0185A150C4D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>HISTORIAL DE CAMBIOS</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">Se corrigió el perfil del proyecto </t>
+  </si>
+  <si>
+    <t>Num.</t>
   </si>
 </sst>
 </file>
@@ -253,21 +256,19 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -279,22 +280,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+  <dxfs count="17">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -302,11 +339,151 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -314,11 +491,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -336,22 +509,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -366,7 +523,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -376,43 +533,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -429,18 +550,16 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -448,44 +567,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -502,20 +583,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{55205B60-AFEA-4708-924D-D7532EE9D2CD}" name="Table2" displayName="Table2" ref="B3:F8" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="B3:F8" xr:uid="{55205B60-AFEA-4708-924D-D7532EE9D2CD}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{55205B60-AFEA-4708-924D-D7532EE9D2CD}" name="Table2" displayName="Table2" ref="B3:G8" headerRowDxfId="1" totalsRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="16">
+  <autoFilter ref="B3:G8" xr:uid="{55205B60-AFEA-4708-924D-D7532EE9D2CD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{19630CE7-B6A1-47C3-97BC-70D76FCBEC2E}" name="Nombre" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{EC8398CD-4BA8-477E-B063-F8ECD38FD059}" name="Fecha" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4D436E33-3CDD-40D2-B322-170BDD3678A4}" name="Razón de los cambios" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{E94295FE-FCAE-411E-8BDD-0C7716D90412}" name="Descripción" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{544B69A4-7E48-4EEC-951F-FC1A580D76D0}" name="Versión" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+  <tableColumns count="6">
+    <tableColumn id="5" xr3:uid="{E49E53D7-8E39-4628-92B8-7831B41473D5}" name="Num." dataDxfId="7" totalsRowDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{19630CE7-B6A1-47C3-97BC-70D76FCBEC2E}" name="Nombre" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{EC8398CD-4BA8-477E-B063-F8ECD38FD059}" name="Fecha" dataDxfId="5" totalsRowDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4D436E33-3CDD-40D2-B322-170BDD3678A4}" name="Razón de los cambios" dataDxfId="4" totalsRowDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{E94295FE-FCAE-411E-8BDD-0C7716D90412}" name="Descripción" dataDxfId="3" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{544B69A4-7E48-4EEC-951F-FC1A580D76D0}" name="Versión" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -838,125 +921,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB9EDE-D4CB-48E3-878D-BD391E643233}">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>45442</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>45448</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>45450</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>45450</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+    <row r="8" spans="2:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -968,6 +1071,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f14866ee3587f7ce27492aa7a9fad3cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" xmlns:ns4="ce621958-37b1-43fe-a1f1-1aad67996a88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a75488916cf2c0345e17416545d11eb" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -1162,24 +1282,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73F67B4-87E9-4AE4-8A98-0B0549C95613}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEDAB8DE-133A-46DD-9C0B-9269E412FEB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE85F10-5C80-457E-8120-672894666935}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1196,29 +1324,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEDAB8DE-133A-46DD-9C0B-9269E412FEB0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73F67B4-87E9-4AE4-8A98-0B0549C95613}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_Documentacion/09_Versionamiento/VERSIONAMIENTO.xlsx
+++ b/01_Documentacion/09_Versionamiento/VERSIONAMIENTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ING_REQUISITOS\GITHUB\EspinAndres_14568_G2_IR\01_Documentacion\09_Versionamiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\Nueva carpeta\REQUISITOS\Documentacion\EspinAndres_14568_G2_IR\01_Documentacion\09_Versionamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C8A560-D913-493D-8F91-4576887FE50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CFA6D4-9C3A-4C8E-A05D-461EDBA1D0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{832FCFE1-AD69-4BE8-BC16-E0185A150C4D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{832FCFE1-AD69-4BE8-BC16-E0185A150C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>HISTORIAL DE CAMBIOS</t>
   </si>
@@ -93,13 +93,31 @@
   </si>
   <si>
     <t>Num.</t>
+  </si>
+  <si>
+    <t>5 </t>
+  </si>
+  <si>
+    <t>Espin Andrés </t>
+  </si>
+  <si>
+    <t>6/9/2024 </t>
+  </si>
+  <si>
+    <t>Documento de requisitos de Sistema </t>
+  </si>
+  <si>
+    <t>Se corrigió DRS </t>
+  </si>
+  <si>
+    <t>Version 1 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +138,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -221,41 +245,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -264,27 +253,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,6 +335,222 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -307,6 +566,29 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -328,245 +610,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -583,7 +626,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{55205B60-AFEA-4708-924D-D7532EE9D2CD}" name="Table2" displayName="Table2" ref="B3:G8" headerRowDxfId="1" totalsRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{55205B60-AFEA-4708-924D-D7532EE9D2CD}" name="Table2" displayName="Table2" ref="B3:G8" headerRowDxfId="16" totalsRowDxfId="13" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="12">
   <autoFilter ref="B3:G8" xr:uid="{55205B60-AFEA-4708-924D-D7532EE9D2CD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -593,12 +636,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="5" xr3:uid="{E49E53D7-8E39-4628-92B8-7831B41473D5}" name="Num." dataDxfId="7" totalsRowDxfId="15"/>
-    <tableColumn id="1" xr3:uid="{19630CE7-B6A1-47C3-97BC-70D76FCBEC2E}" name="Nombre" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{EC8398CD-4BA8-477E-B063-F8ECD38FD059}" name="Fecha" dataDxfId="5" totalsRowDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4D436E33-3CDD-40D2-B322-170BDD3678A4}" name="Razón de los cambios" dataDxfId="4" totalsRowDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{E94295FE-FCAE-411E-8BDD-0C7716D90412}" name="Descripción" dataDxfId="3" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{544B69A4-7E48-4EEC-951F-FC1A580D76D0}" name="Versión" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{E49E53D7-8E39-4628-92B8-7831B41473D5}" name="Num." dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{19630CE7-B6A1-47C3-97BC-70D76FCBEC2E}" name="Nombre" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{EC8398CD-4BA8-477E-B063-F8ECD38FD059}" name="Fecha" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4D436E33-3CDD-40D2-B322-170BDD3678A4}" name="Razón de los cambios" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{E94295FE-FCAE-411E-8BDD-0C7716D90412}" name="Descripción" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{544B69A4-7E48-4EEC-951F-FC1A580D76D0}" name="Versión" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -924,50 +967,50 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="2:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:7" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -987,7 +1030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1007,7 +1050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1027,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1047,15 +1090,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+    <row r="8" spans="2:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1079,15 +1132,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f14866ee3587f7ce27492aa7a9fad3cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" xmlns:ns4="ce621958-37b1-43fe-a1f1-1aad67996a88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a75488916cf2c0345e17416545d11eb" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -1282,6 +1326,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73F67B4-87E9-4AE4-8A98-0B0549C95613}">
   <ds:schemaRefs>
@@ -1300,14 +1353,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEDAB8DE-133A-46DD-9C0B-9269E412FEB0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE85F10-5C80-457E-8120-672894666935}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1324,4 +1369,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEDAB8DE-133A-46DD-9C0B-9269E412FEB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>